--- a/data/0. old data/0. raw/2015/accumulations.xlsx
+++ b/data/0. old data/0. raw/2015/accumulations.xlsx
@@ -1074,8 +1074,8 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/0. old data/0. raw/2015/accumulations.xlsx
+++ b/data/0. old data/0. raw/2015/accumulations.xlsx
@@ -4,12 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26840" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blatt2" sheetId="2" r:id="rId1"/>
+    <sheet name="Blatt1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blatt1!$I$1:$I$148</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="78" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="65">
   <si>
     <t>donations_grants</t>
   </si>
@@ -190,13 +197,37 @@
   </si>
   <si>
     <t>boehringer</t>
+  </si>
+  <si>
+    <t>menarini</t>
+  </si>
+  <si>
+    <t>astrazeneca</t>
+  </si>
+  <si>
+    <t>janssen</t>
+  </si>
+  <si>
+    <t>roche</t>
+  </si>
+  <si>
+    <t>Zeilenbeschriftungen</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>Anzahl - type</t>
+  </si>
+  <si>
+    <t>Ergebnis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,13 +255,26 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,7 +286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="247">
+  <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -490,12 +534,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="247">
+  <cellStyles count="287">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -619,6 +710,26 @@
     <cellStyle name="Besuchter Link" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -742,11 +853,1982 @@
     <cellStyle name="Link" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Office User" refreshedDate="43558.577711226855" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="147">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I148" sheet="Blatt1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="donations_grants" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1200" maxValue="2450955"/>
+    </cacheField>
+    <cacheField name="sponsorship" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1000" maxValue="2709450.54"/>
+    </cacheField>
+    <cacheField name="registration_fees" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="459" maxValue="137781.20000000001"/>
+    </cacheField>
+    <cacheField name="travel_accommodation" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="63" maxValue="528152.14"/>
+    </cacheField>
+    <cacheField name="fees" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="988" maxValue="1735049"/>
+    </cacheField>
+    <cacheField name="related_expenses" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.299999999999997" maxValue="61978.84"/>
+    </cacheField>
+    <cacheField name="total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1000" maxValue="16233766.85"/>
+    </cacheField>
+    <cacheField name="source" numFmtId="0">
+      <sharedItems count="49">
+        <s v="abbvie"/>
+        <s v="actelion"/>
+        <s v="alcon"/>
+        <s v="allergan"/>
+        <s v="almirall"/>
+        <s v="amgen"/>
+        <s v="astellas"/>
+        <s v="astrazeneca"/>
+        <s v="baxalta"/>
+        <s v="baxter"/>
+        <s v="bayer"/>
+        <s v="bgp"/>
+        <s v="biogen"/>
+        <s v="bristol"/>
+        <s v="boehringer"/>
+        <s v="celgene"/>
+        <s v="csl"/>
+        <s v="daiichi"/>
+        <s v="eisai"/>
+        <s v="eli"/>
+        <s v="ferring"/>
+        <s v="future"/>
+        <s v="galderma"/>
+        <s v="gilead"/>
+        <s v="gruenenthal"/>
+        <s v="glaxosmithkline"/>
+        <s v="janssen"/>
+        <s v="leo"/>
+        <s v="lundbeck"/>
+        <s v="mepha"/>
+        <s v="merck"/>
+        <s v="msd"/>
+        <s v="mundipharma"/>
+        <s v="menarini"/>
+        <s v="novartis"/>
+        <s v="novo"/>
+        <s v="otsuka"/>
+        <s v="pfizer"/>
+        <s v="pierre"/>
+        <s v="roche"/>
+        <s v="sandoz"/>
+        <s v="sanofi"/>
+        <s v="servier"/>
+        <s v="stallergenes"/>
+        <s v="takeda"/>
+        <s v="teva"/>
+        <s v="ucb"/>
+        <s v="vifor"/>
+        <s v="zambon"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="147">
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="3282"/>
+    <n v="4877"/>
+    <n v="5032"/>
+    <n v="1331"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="1500"/>
+    <n v="6200"/>
+    <n v="9632"/>
+    <n v="19915"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1044454"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="12881.01"/>
+    <n v="12456.27"/>
+    <n v="63659.29"/>
+    <n v="39083.35"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="204940.79"/>
+    <n v="18000"/>
+    <m/>
+    <m/>
+    <n v="1500"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1376521.62"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="24854"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="5000"/>
+    <n v="22929.83"/>
+    <m/>
+    <m/>
+    <n v="7443.28"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="56558"/>
+    <m/>
+    <n v="106161"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="1200"/>
+    <n v="133260"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="630"/>
+    <n v="2637.81"/>
+    <n v="10766.45"/>
+    <n v="1951.17"/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="48324.98"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="18891.38"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="20317.68"/>
+    <n v="101994.55"/>
+    <n v="100031.67"/>
+    <n v="61978.84"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="1000"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1344344.84"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="11931.5"/>
+    <n v="22477.3"/>
+    <n v="35227.5"/>
+    <n v="3924"/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="37182.5"/>
+    <n v="28200"/>
+    <n v="1012.1"/>
+    <n v="4333.6000000000004"/>
+    <n v="3000"/>
+    <n v="33.299999999999997"/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="103738.8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="2087.38"/>
+    <n v="10756.9"/>
+    <n v="148526.44"/>
+    <n v="2619.9299999999998"/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="304287.03999999998"/>
+    <n v="639319.07999999996"/>
+    <n v="3465"/>
+    <m/>
+    <n v="111781.85"/>
+    <n v="473.8"/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3622360.1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1000"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="120000"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="137781.20000000001"/>
+    <n v="528152.14"/>
+    <n v="386331.2"/>
+    <n v="23870.9"/>
+    <m/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="1750.44"/>
+    <n v="2709450.54"/>
+    <n v="17281.75"/>
+    <n v="11715.5"/>
+    <n v="152736"/>
+    <n v="2402.89"/>
+    <m/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2144044.9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="705"/>
+    <m/>
+    <n v="4000"/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="19688"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="6714"/>
+    <n v="31279.51"/>
+    <n v="63052.73"/>
+    <n v="5937.81"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="10250"/>
+    <m/>
+    <m/>
+    <n v="291882.92"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="640001.39"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="13336"/>
+    <n v="46014"/>
+    <n v="161935"/>
+    <n v="12737"/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="2450955"/>
+    <n v="652510"/>
+    <m/>
+    <n v="65"/>
+    <n v="101870"/>
+    <n v="138"/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2380849"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="33841.07"/>
+    <n v="40639.279999999999"/>
+    <n v="235006.69"/>
+    <n v="15675.58"/>
+    <m/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="220751.65"/>
+    <n v="169830.41"/>
+    <m/>
+    <n v="5800"/>
+    <n v="39430.76"/>
+    <m/>
+    <m/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="199397.76000000001"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="16899"/>
+    <n v="41282"/>
+    <n v="46008"/>
+    <n v="1784"/>
+    <m/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="570684"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="479.8"/>
+    <n v="41641.25"/>
+    <n v="20027.514999999999"/>
+    <m/>
+    <m/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="32000"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="281987"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="34502"/>
+    <n v="55228"/>
+    <n v="58169"/>
+    <n v="1021"/>
+    <m/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="20000"/>
+    <n v="192867"/>
+    <m/>
+    <m/>
+    <n v="2300"/>
+    <m/>
+    <m/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="8851"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="429.24"/>
+    <n v="8236.73"/>
+    <n v="5903.37"/>
+    <m/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="14550"/>
+    <m/>
+    <m/>
+    <n v="5391.2"/>
+    <n v="750"/>
+    <m/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="533682.46"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="3081"/>
+    <n v="7827"/>
+    <n v="153600"/>
+    <n v="39375"/>
+    <m/>
+    <x v="19"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="48777"/>
+    <n v="176185"/>
+    <m/>
+    <n v="63"/>
+    <n v="28238"/>
+    <m/>
+    <m/>
+    <x v="19"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="143504"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="864"/>
+    <n v="4861"/>
+    <m/>
+    <m/>
+    <x v="20"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="204600"/>
+    <n v="96441"/>
+    <n v="618"/>
+    <n v="141"/>
+    <n v="10216"/>
+    <n v="115"/>
+    <m/>
+    <x v="20"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="20"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="4564.6400000000003"/>
+    <n v="15890.94"/>
+    <n v="4953.13"/>
+    <n v="71.72"/>
+    <m/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="10000"/>
+    <n v="148976.71"/>
+    <m/>
+    <n v="2159.09"/>
+    <n v="18961.66"/>
+    <n v="3036.92"/>
+    <m/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="254713.88"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="1400"/>
+    <n v="1600"/>
+    <n v="63565"/>
+    <n v="10323"/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="20454.95"/>
+    <n v="90796.46"/>
+    <n v="40511.54"/>
+    <n v="4093.81"/>
+    <m/>
+    <x v="23"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="544093.21"/>
+    <n v="853396.25"/>
+    <n v="17778.93"/>
+    <n v="92010.6"/>
+    <n v="63100.59"/>
+    <n v="4677.74"/>
+    <m/>
+    <x v="23"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="557916.9"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="959.2"/>
+    <n v="4487.8"/>
+    <n v="25500"/>
+    <n v="358"/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="7260"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="484.79"/>
+    <m/>
+    <x v="25"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="25"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="176513.07"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="8711"/>
+    <n v="18154"/>
+    <n v="102214"/>
+    <n v="21169"/>
+    <m/>
+    <x v="26"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="390995"/>
+    <n v="161000"/>
+    <m/>
+    <m/>
+    <n v="988"/>
+    <m/>
+    <m/>
+    <x v="26"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2239565"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="564.15"/>
+    <n v="2781"/>
+    <n v="24810"/>
+    <n v="42"/>
+    <m/>
+    <x v="27"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="1600"/>
+    <n v="94557.35"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="27"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5000"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="28"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="28"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="28"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="4852"/>
+    <n v="8524"/>
+    <n v="16322"/>
+    <n v="1376"/>
+    <m/>
+    <x v="29"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="245086"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="29"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="29"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="33072.71"/>
+    <n v="96738.59"/>
+    <n v="122576.78"/>
+    <n v="10311.35"/>
+    <m/>
+    <x v="30"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="30"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2303382"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <n v="37213.870000000003"/>
+    <n v="10424.219999999999"/>
+    <n v="48466.58"/>
+    <n v="301203.73"/>
+    <n v="27160.82"/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="194148.15"/>
+    <n v="590643.93000000005"/>
+    <n v="10302.549999999999"/>
+    <n v="39737.279999999999"/>
+    <n v="197042.52"/>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1031039.46"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="32"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="32"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="125500"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="524"/>
+    <n v="2352"/>
+    <m/>
+    <m/>
+    <x v="33"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="8377"/>
+    <n v="447235"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="33"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="33"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="43593.3"/>
+    <n v="64540.01"/>
+    <n v="209375.86"/>
+    <n v="24602.639999999999"/>
+    <m/>
+    <x v="34"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="74091.19"/>
+    <n v="526308.59"/>
+    <n v="9139.6"/>
+    <n v="35683.79"/>
+    <n v="156374"/>
+    <n v="7658.1"/>
+    <m/>
+    <x v="34"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="16233766.85"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <n v="26550"/>
+    <n v="11188"/>
+    <n v="44062"/>
+    <n v="61906"/>
+    <n v="16718"/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="300000"/>
+    <n v="5500"/>
+    <m/>
+    <m/>
+    <n v="13400"/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="205170"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="1271.46"/>
+    <n v="2492.4499999999998"/>
+    <n v="11425"/>
+    <n v="110.5"/>
+    <m/>
+    <x v="36"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="36"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="36"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="5479"/>
+    <n v="28605"/>
+    <n v="142609"/>
+    <n v="13562"/>
+    <m/>
+    <x v="37"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="588846"/>
+    <n v="2043451"/>
+    <n v="2237"/>
+    <n v="13848"/>
+    <n v="103193"/>
+    <m/>
+    <m/>
+    <x v="37"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1858318"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="7661.31"/>
+    <n v="20262.13"/>
+    <n v="2750"/>
+    <m/>
+    <m/>
+    <x v="38"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="14500"/>
+    <n v="2492"/>
+    <n v="5445"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="38"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="38"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="43511"/>
+    <n v="30687"/>
+    <n v="1735049"/>
+    <n v="60683"/>
+    <m/>
+    <x v="39"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="13317"/>
+    <n v="2634"/>
+    <m/>
+    <n v="3800"/>
+    <n v="125"/>
+    <m/>
+    <x v="39"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="6998109"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="22554.6"/>
+    <n v="30212.799999999999"/>
+    <n v="27150.16"/>
+    <n v="5283"/>
+    <m/>
+    <x v="40"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="207272.25"/>
+    <n v="130196.28"/>
+    <n v="4818"/>
+    <n v="1836"/>
+    <n v="1000"/>
+    <m/>
+    <m/>
+    <x v="40"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="6659.31"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="31025.01"/>
+    <n v="118407.22"/>
+    <n v="238867.48"/>
+    <n v="37700.550000000003"/>
+    <m/>
+    <x v="41"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="237776.47"/>
+    <n v="1101817.78"/>
+    <m/>
+    <n v="4500"/>
+    <n v="69597"/>
+    <n v="6976.53"/>
+    <m/>
+    <x v="41"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="297960.34000000003"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="9218"/>
+    <n v="20478"/>
+    <n v="83020"/>
+    <n v="12956"/>
+    <m/>
+    <x v="42"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="5000"/>
+    <n v="534668"/>
+    <n v="1117"/>
+    <m/>
+    <n v="515656"/>
+    <n v="3537"/>
+    <m/>
+    <x v="42"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="185571"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="43"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="43"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4400"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="643.20000000000005"/>
+    <n v="1246.33"/>
+    <n v="21176.69"/>
+    <n v="394.26"/>
+    <m/>
+    <x v="44"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="56430.34"/>
+    <n v="313726.27"/>
+    <n v="2641.42"/>
+    <n v="19595.990000000002"/>
+    <n v="5256"/>
+    <m/>
+    <m/>
+    <x v="44"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="414092.07"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="45334"/>
+    <n v="107760"/>
+    <n v="14950"/>
+    <n v="1294"/>
+    <m/>
+    <x v="45"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="1852"/>
+    <m/>
+    <n v="29122"/>
+    <m/>
+    <n v="2100"/>
+    <n v="134"/>
+    <m/>
+    <x v="45"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="45"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="1472.6"/>
+    <n v="3388.86"/>
+    <n v="27058.58"/>
+    <n v="496.7"/>
+    <m/>
+    <x v="46"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="46"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="680648.93"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <n v="19569.830000000002"/>
+    <n v="54852.63"/>
+    <n v="129896.83"/>
+    <n v="3466"/>
+    <m/>
+    <x v="47"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <n v="147500"/>
+    <n v="392440.6"/>
+    <n v="567.84"/>
+    <n v="1588.53"/>
+    <n v="2500"/>
+    <m/>
+    <m/>
+    <x v="47"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="205079.99"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <s v="hcp"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1200"/>
+    <m/>
+    <m/>
+    <x v="48"/>
+  </r>
+  <r>
+    <s v="hco"/>
+    <m/>
+    <n v="15225"/>
+    <n v="459"/>
+    <n v="608"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="48"/>
+  </r>
+  <r>
+    <s v="rnd"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="48"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:B54" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="50">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="33"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="50">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Anzahl - type" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1071,11 +3153,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A3:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="6">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1170,51 +3690,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>12881.01</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>12456.27</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>63659.29</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>39083.35</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>204940.79</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>18000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>1500</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>2401382</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="2">
+        <v>1376521.62</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1250,9 +3770,6 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="H10">
-        <v>85777.11</v>
-      </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
@@ -1438,16 +3955,43 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
+      <c r="D23">
+        <v>2087.38</v>
+      </c>
+      <c r="E23">
+        <v>10756.9</v>
+      </c>
+      <c r="F23">
+        <v>148526.44</v>
+      </c>
+      <c r="G23">
+        <v>2619.9299999999998</v>
+      </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>11</v>
       </c>
+      <c r="B24">
+        <v>304287.03999999998</v>
+      </c>
+      <c r="C24">
+        <v>639319.07999999996</v>
+      </c>
+      <c r="D24">
+        <v>3465</v>
+      </c>
+      <c r="F24">
+        <v>111781.85</v>
+      </c>
+      <c r="G24">
+        <v>473.8</v>
+      </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1455,10 +3999,10 @@
         <v>12</v>
       </c>
       <c r="H25">
-        <v>1000</v>
+        <v>3622360.1</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1466,7 +4010,7 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1474,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1482,56 +4026,26 @@
         <v>12</v>
       </c>
       <c r="H28">
-        <v>120000</v>
+        <v>1000</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="D29">
-        <v>137781.20000000001</v>
-      </c>
-      <c r="E29">
-        <v>528152.14</v>
-      </c>
-      <c r="F29">
-        <v>386331.2</v>
-      </c>
-      <c r="G29">
-        <v>23870.9</v>
-      </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30">
-        <v>1750.44</v>
-      </c>
-      <c r="C30">
-        <v>2709450.54</v>
-      </c>
-      <c r="D30">
-        <v>17281.75</v>
-      </c>
-      <c r="E30">
-        <v>11715.5</v>
-      </c>
-      <c r="F30">
-        <v>152736</v>
-      </c>
-      <c r="G30">
-        <v>2402.89</v>
-      </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1539,63 +4053,81 @@
         <v>12</v>
       </c>
       <c r="H31">
-        <v>2144044.9</v>
+        <v>120000</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>10</v>
       </c>
+      <c r="D32">
+        <v>137781.20000000001</v>
+      </c>
       <c r="E32">
-        <v>705</v>
+        <v>528152.14</v>
+      </c>
+      <c r="F32">
+        <v>386331.2</v>
       </c>
       <c r="G32">
-        <v>4000</v>
+        <v>23870.9</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>11</v>
       </c>
+      <c r="B33">
+        <v>1750.44</v>
+      </c>
       <c r="C33">
-        <v>19688</v>
+        <v>2709450.54</v>
+      </c>
+      <c r="D33">
+        <v>17281.75</v>
+      </c>
+      <c r="E33">
+        <v>11715.5</v>
+      </c>
+      <c r="F33">
+        <v>152736</v>
+      </c>
+      <c r="G33">
+        <v>2402.89</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>12</v>
       </c>
+      <c r="H34">
+        <v>2144044.9</v>
+      </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="D35">
-        <v>6714</v>
-      </c>
       <c r="E35">
-        <v>31279.51</v>
-      </c>
-      <c r="F35">
-        <v>63052.73</v>
+        <v>705</v>
       </c>
       <c r="G35">
-        <v>5937.81</v>
+        <v>4000</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1603,24 +4135,18 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>10250</v>
-      </c>
-      <c r="F36">
-        <v>291882.92</v>
+        <v>19688</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>12</v>
       </c>
-      <c r="H37">
-        <v>640001.39</v>
-      </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1628,42 +4154,33 @@
         <v>10</v>
       </c>
       <c r="D38">
-        <v>13336</v>
+        <v>6714</v>
       </c>
       <c r="E38">
-        <v>46014</v>
+        <v>31279.51</v>
       </c>
       <c r="F38">
-        <v>161935</v>
+        <v>63052.73</v>
       </c>
       <c r="G38">
-        <v>12737</v>
+        <v>5937.81</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39">
-        <v>2450955</v>
-      </c>
       <c r="C39">
-        <v>652510</v>
-      </c>
-      <c r="E39">
-        <v>65</v>
+        <v>10250</v>
       </c>
       <c r="F39">
-        <v>101870</v>
-      </c>
-      <c r="G39">
-        <v>138</v>
+        <v>291882.92</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1671,10 +4188,10 @@
         <v>12</v>
       </c>
       <c r="H40">
-        <v>2380849</v>
+        <v>640001.39</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1682,19 +4199,19 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <v>33841.07</v>
+        <v>13336</v>
       </c>
       <c r="E41">
-        <v>40639.279999999999</v>
+        <v>46014</v>
       </c>
       <c r="F41">
-        <v>235006.69</v>
+        <v>161935</v>
       </c>
       <c r="G41">
-        <v>15675.58</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>56</v>
+        <v>12737</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1702,19 +4219,22 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>220751.65</v>
+        <v>2450955</v>
       </c>
       <c r="C42">
-        <v>169830.41</v>
+        <v>652510</v>
       </c>
       <c r="E42">
-        <v>5800</v>
+        <v>65</v>
       </c>
       <c r="F42">
-        <v>39430.76</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>56</v>
+        <v>101870</v>
+      </c>
+      <c r="G42">
+        <v>138</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1722,10 +4242,10 @@
         <v>12</v>
       </c>
       <c r="H43">
-        <v>199397.76000000001</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>56</v>
+        <v>2380849</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1733,16 +4253,16 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>16899</v>
+        <v>33841.07</v>
       </c>
       <c r="E44">
-        <v>41282</v>
+        <v>40639.279999999999</v>
       </c>
       <c r="F44">
-        <v>46008</v>
+        <v>235006.69</v>
       </c>
       <c r="G44">
-        <v>1784</v>
+        <v>15675.58</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>56</v>
@@ -1752,8 +4272,20 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="I45" t="s">
-        <v>25</v>
+      <c r="B45">
+        <v>220751.65</v>
+      </c>
+      <c r="C45">
+        <v>169830.41</v>
+      </c>
+      <c r="E45">
+        <v>5800</v>
+      </c>
+      <c r="F45">
+        <v>39430.76</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1761,10 +4293,10 @@
         <v>12</v>
       </c>
       <c r="H46">
-        <v>570684</v>
-      </c>
-      <c r="I46" t="s">
-        <v>25</v>
+        <v>199397.76000000001</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1772,27 +4304,27 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>479.8</v>
+        <v>16899</v>
       </c>
       <c r="E47">
-        <v>41641.25</v>
+        <v>41282</v>
       </c>
       <c r="F47">
-        <v>20027.514999999999</v>
+        <v>46008</v>
+      </c>
+      <c r="G47">
+        <v>1784</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="C48">
-        <v>32000</v>
-      </c>
       <c r="I48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1800,10 +4332,10 @@
         <v>12</v>
       </c>
       <c r="H49">
-        <v>281987</v>
+        <v>570684</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1811,36 +4343,27 @@
         <v>10</v>
       </c>
       <c r="D50">
-        <v>34502</v>
+        <v>479.8</v>
       </c>
       <c r="E50">
-        <v>55228</v>
+        <v>41641.25</v>
       </c>
       <c r="F50">
-        <v>58169</v>
-      </c>
-      <c r="G50">
-        <v>1021</v>
+        <v>20027.514999999999</v>
       </c>
       <c r="I50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51">
-        <v>20000</v>
-      </c>
       <c r="C51">
-        <v>192867</v>
-      </c>
-      <c r="F51">
-        <v>2300</v>
+        <v>32000</v>
       </c>
       <c r="I51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1848,44 +4371,47 @@
         <v>12</v>
       </c>
       <c r="H52">
-        <v>8851</v>
+        <v>281987</v>
       </c>
       <c r="I52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>10</v>
       </c>
+      <c r="D53">
+        <v>34502</v>
+      </c>
       <c r="E53">
-        <v>429.24</v>
+        <v>55228</v>
       </c>
       <c r="F53">
-        <v>8236.73</v>
+        <v>58169</v>
       </c>
       <c r="G53">
-        <v>5903.37</v>
+        <v>1021</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>11</v>
       </c>
+      <c r="B54">
+        <v>20000</v>
+      </c>
       <c r="C54">
-        <v>14550</v>
+        <v>192867</v>
       </c>
       <c r="F54">
-        <v>5391.2</v>
-      </c>
-      <c r="G54">
-        <v>750</v>
+        <v>2300</v>
       </c>
       <c r="I54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1893,50 +4419,44 @@
         <v>12</v>
       </c>
       <c r="H55">
-        <v>533682.46</v>
+        <v>8851</v>
       </c>
       <c r="I55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>10</v>
       </c>
-      <c r="D56">
-        <v>3081</v>
-      </c>
       <c r="E56">
-        <v>7827</v>
+        <v>429.24</v>
       </c>
       <c r="F56">
-        <v>153600</v>
+        <v>8236.73</v>
       </c>
       <c r="G56">
-        <v>39375</v>
+        <v>5903.37</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57">
-        <v>48777</v>
-      </c>
       <c r="C57">
-        <v>176185</v>
-      </c>
-      <c r="E57">
-        <v>63</v>
+        <v>14550</v>
       </c>
       <c r="F57">
-        <v>28238</v>
+        <v>5391.2</v>
+      </c>
+      <c r="G57">
+        <v>750</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -1944,24 +4464,30 @@
         <v>12</v>
       </c>
       <c r="H58">
-        <v>143504</v>
+        <v>533682.46</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>10</v>
       </c>
+      <c r="D59">
+        <v>3081</v>
+      </c>
       <c r="E59">
-        <v>864</v>
+        <v>7827</v>
       </c>
       <c r="F59">
-        <v>4861</v>
+        <v>153600</v>
+      </c>
+      <c r="G59">
+        <v>39375</v>
       </c>
       <c r="I59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -1969,53 +4495,44 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>204600</v>
+        <v>48777</v>
       </c>
       <c r="C60">
-        <v>96441</v>
-      </c>
-      <c r="D60">
-        <v>618</v>
+        <v>176185</v>
       </c>
       <c r="E60">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="F60">
-        <v>10216</v>
-      </c>
-      <c r="G60">
-        <v>115</v>
+        <v>28238</v>
       </c>
       <c r="I60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>12</v>
       </c>
+      <c r="H61">
+        <v>143504</v>
+      </c>
       <c r="I61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="D62">
-        <v>4564.6400000000003</v>
-      </c>
       <c r="E62">
-        <v>15890.94</v>
+        <v>864</v>
       </c>
       <c r="F62">
-        <v>4953.13</v>
-      </c>
-      <c r="G62">
-        <v>71.72</v>
+        <v>4861</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2023,33 +4540,33 @@
         <v>11</v>
       </c>
       <c r="B63">
-        <v>10000</v>
+        <v>204600</v>
       </c>
       <c r="C63">
-        <v>148976.71</v>
+        <v>96441</v>
+      </c>
+      <c r="D63">
+        <v>618</v>
       </c>
       <c r="E63">
-        <v>2159.09</v>
+        <v>141</v>
       </c>
       <c r="F63">
-        <v>18961.66</v>
+        <v>10216</v>
       </c>
       <c r="G63">
-        <v>3036.92</v>
+        <v>115</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>12</v>
       </c>
-      <c r="H64">
-        <v>254713.88</v>
-      </c>
       <c r="I64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2057,35 +4574,53 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>1400</v>
+        <v>4564.6400000000003</v>
       </c>
       <c r="E65">
-        <v>1600</v>
+        <v>15890.94</v>
       </c>
       <c r="F65">
-        <v>63565</v>
+        <v>4953.13</v>
       </c>
       <c r="G65">
-        <v>10323</v>
+        <v>71.72</v>
       </c>
       <c r="I65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>11</v>
       </c>
+      <c r="B66">
+        <v>10000</v>
+      </c>
+      <c r="C66">
+        <v>148976.71</v>
+      </c>
+      <c r="E66">
+        <v>2159.09</v>
+      </c>
+      <c r="F66">
+        <v>18961.66</v>
+      </c>
+      <c r="G66">
+        <v>3036.92</v>
+      </c>
       <c r="I66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>12</v>
       </c>
+      <c r="H67">
+        <v>254713.88</v>
+      </c>
       <c r="I67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2093,56 +4628,35 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>20454.95</v>
+        <v>1400</v>
       </c>
       <c r="E68">
-        <v>90796.46</v>
+        <v>1600</v>
       </c>
       <c r="F68">
-        <v>40511.54</v>
+        <v>63565</v>
       </c>
       <c r="G68">
-        <v>4093.81</v>
+        <v>10323</v>
       </c>
       <c r="I68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69">
-        <v>544093.21</v>
-      </c>
-      <c r="C69">
-        <v>853396.25</v>
-      </c>
-      <c r="D69">
-        <v>17778.93</v>
-      </c>
-      <c r="E69">
-        <v>92010.6</v>
-      </c>
-      <c r="F69">
-        <v>63100.59</v>
-      </c>
-      <c r="G69">
-        <v>4677.74</v>
-      </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>12</v>
       </c>
-      <c r="H70">
-        <v>2362007.35</v>
-      </c>
       <c r="I70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2150,27 +4664,45 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>959.2</v>
+        <v>20454.95</v>
       </c>
       <c r="E71">
-        <v>4487.8</v>
+        <v>90796.46</v>
       </c>
       <c r="F71">
-        <v>25500</v>
+        <v>40511.54</v>
       </c>
       <c r="G71">
-        <v>358</v>
+        <v>4093.81</v>
       </c>
       <c r="I71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>11</v>
       </c>
+      <c r="B72">
+        <v>544093.21</v>
+      </c>
+      <c r="C72">
+        <v>853396.25</v>
+      </c>
+      <c r="D72">
+        <v>17778.93</v>
+      </c>
+      <c r="E72">
+        <v>92010.6</v>
+      </c>
+      <c r="F72">
+        <v>63100.59</v>
+      </c>
+      <c r="G72">
+        <v>4677.74</v>
+      </c>
       <c r="I72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2178,21 +4710,30 @@
         <v>12</v>
       </c>
       <c r="H73">
-        <v>7260</v>
+        <v>557916.9</v>
       </c>
       <c r="I73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>10</v>
       </c>
+      <c r="D74">
+        <v>959.2</v>
+      </c>
+      <c r="E74">
+        <v>4487.8</v>
+      </c>
+      <c r="F74">
+        <v>25500</v>
+      </c>
       <c r="G74">
-        <v>484.79</v>
+        <v>358</v>
       </c>
       <c r="I74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2200,7 +4741,7 @@
         <v>11</v>
       </c>
       <c r="I75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2208,44 +4749,29 @@
         <v>12</v>
       </c>
       <c r="H76">
-        <v>176513.07</v>
+        <v>7260</v>
       </c>
       <c r="I76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>10</v>
       </c>
-      <c r="D77">
-        <v>564.15</v>
-      </c>
-      <c r="E77">
-        <v>2781</v>
-      </c>
-      <c r="F77">
-        <v>24810</v>
-      </c>
       <c r="G77">
-        <v>42</v>
+        <v>484.79</v>
       </c>
       <c r="I77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78">
-        <v>1600</v>
-      </c>
-      <c r="C78">
-        <v>94557.35</v>
-      </c>
       <c r="I78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2253,34 +4779,58 @@
         <v>12</v>
       </c>
       <c r="H79">
-        <v>5000</v>
+        <v>176513.07</v>
       </c>
       <c r="I79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>10</v>
       </c>
+      <c r="D80">
+        <v>8711</v>
+      </c>
+      <c r="E80">
+        <v>18154</v>
+      </c>
+      <c r="F80">
+        <v>102214</v>
+      </c>
+      <c r="G80">
+        <v>21169</v>
+      </c>
       <c r="I80" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>11</v>
       </c>
+      <c r="B81">
+        <v>390995</v>
+      </c>
+      <c r="C81">
+        <v>161000</v>
+      </c>
+      <c r="F81">
+        <v>988</v>
+      </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>12</v>
       </c>
+      <c r="H82">
+        <v>2239565</v>
+      </c>
       <c r="I82" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2288,58 +4838,52 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <v>4852</v>
+        <v>564.15</v>
       </c>
       <c r="E83">
-        <v>8524</v>
+        <v>2781</v>
       </c>
       <c r="F83">
-        <v>16322</v>
+        <v>24810</v>
       </c>
       <c r="G83">
-        <v>1376</v>
+        <v>42</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>11</v>
       </c>
+      <c r="B84">
+        <v>1600</v>
+      </c>
       <c r="C84">
-        <v>245086</v>
+        <v>94557.35</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>12</v>
       </c>
+      <c r="H85">
+        <v>5000</v>
+      </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>10</v>
       </c>
-      <c r="D86">
-        <v>33072.71</v>
-      </c>
-      <c r="E86">
-        <v>96738.59</v>
-      </c>
-      <c r="F86">
-        <v>122576.78</v>
-      </c>
-      <c r="G86">
-        <v>10311.35</v>
-      </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2347,83 +4891,74 @@
         <v>11</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>12</v>
       </c>
-      <c r="H88">
-        <v>2303382</v>
-      </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>10</v>
       </c>
-      <c r="C89">
-        <v>37213.870000000003</v>
-      </c>
       <c r="D89">
-        <v>10424.219999999999</v>
+        <v>4852</v>
       </c>
       <c r="E89">
-        <v>48466.58</v>
+        <v>8524</v>
       </c>
       <c r="F89">
-        <v>301203.73</v>
+        <v>16322</v>
       </c>
       <c r="G89">
-        <v>27160.82</v>
+        <v>1376</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90">
-        <v>194148.15</v>
-      </c>
       <c r="C90">
-        <v>590643.93000000005</v>
-      </c>
-      <c r="D90">
-        <v>10302.549999999999</v>
-      </c>
-      <c r="E90">
-        <v>39737.279999999999</v>
-      </c>
-      <c r="F90">
-        <v>197042.52</v>
+        <v>245086</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>12</v>
       </c>
-      <c r="H91">
-        <v>5314998.28</v>
-      </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>10</v>
       </c>
+      <c r="D92">
+        <v>33072.71</v>
+      </c>
+      <c r="E92">
+        <v>96738.59</v>
+      </c>
+      <c r="F92">
+        <v>122576.78</v>
+      </c>
+      <c r="G92">
+        <v>10311.35</v>
+      </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -2431,7 +4966,7 @@
         <v>11</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -2439,30 +4974,33 @@
         <v>12</v>
       </c>
       <c r="H94">
-        <v>125500</v>
+        <v>2303382</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>10</v>
       </c>
+      <c r="C95">
+        <v>37213.870000000003</v>
+      </c>
       <c r="D95">
-        <v>43593.3</v>
+        <v>10424.219999999999</v>
       </c>
       <c r="E95">
-        <v>64540.01</v>
+        <v>48466.58</v>
       </c>
       <c r="F95">
-        <v>209375.86</v>
+        <v>301203.73</v>
       </c>
       <c r="G95">
-        <v>24602.639999999999</v>
+        <v>27160.82</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -2470,25 +5008,22 @@
         <v>11</v>
       </c>
       <c r="B96">
-        <v>74091.19</v>
+        <v>194148.15</v>
       </c>
       <c r="C96">
-        <v>526308.59</v>
+        <v>590643.93000000005</v>
       </c>
       <c r="D96">
-        <v>9139.6</v>
+        <v>10302.549999999999</v>
       </c>
       <c r="E96">
-        <v>35683.79</v>
+        <v>39737.279999999999</v>
       </c>
       <c r="F96">
-        <v>156374</v>
-      </c>
-      <c r="G96">
-        <v>7658.1</v>
+        <v>197042.52</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -2496,50 +5031,26 @@
         <v>12</v>
       </c>
       <c r="H97">
-        <v>25767442.399999999</v>
+        <v>1031039.46</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>10</v>
       </c>
-      <c r="C98">
-        <v>26550</v>
-      </c>
-      <c r="D98">
-        <v>11188</v>
-      </c>
-      <c r="E98">
-        <v>44062</v>
-      </c>
-      <c r="F98">
-        <v>61906</v>
-      </c>
-      <c r="G98">
-        <v>16718</v>
-      </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99">
-        <v>300000</v>
-      </c>
-      <c r="C99">
-        <v>5500</v>
-      </c>
-      <c r="F99">
-        <v>13400</v>
-      </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -2547,46 +5058,63 @@
         <v>12</v>
       </c>
       <c r="H100">
-        <v>205170</v>
+        <v>125500</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D101">
-        <v>1271.46</v>
-      </c>
-      <c r="E101">
-        <v>2492.4499999999998</v>
-      </c>
-      <c r="F101">
-        <v>11425</v>
-      </c>
-      <c r="G101">
-        <v>110.5</v>
-      </c>
-      <c r="I101" t="s">
-        <v>44</v>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3">
+        <v>524</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2352</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I102" t="s">
-        <v>44</v>
+      <c r="B102" s="3">
+        <v>8377</v>
+      </c>
+      <c r="C102" s="3">
+        <v>447235</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I103" t="s">
-        <v>44</v>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -2594,19 +5122,19 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>5479</v>
+        <v>43593.3</v>
       </c>
       <c r="E104">
-        <v>28605</v>
+        <v>64540.01</v>
       </c>
       <c r="F104">
-        <v>142609</v>
+        <v>209375.86</v>
       </c>
       <c r="G104">
-        <v>13562</v>
+        <v>24602.639999999999</v>
       </c>
       <c r="I104" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -2614,22 +5142,25 @@
         <v>11</v>
       </c>
       <c r="B105">
-        <v>588846</v>
+        <v>74091.19</v>
       </c>
       <c r="C105">
-        <v>2043451</v>
+        <v>526308.59</v>
       </c>
       <c r="D105">
-        <v>2237</v>
+        <v>9139.6</v>
       </c>
       <c r="E105">
-        <v>13848</v>
+        <v>35683.79</v>
       </c>
       <c r="F105">
-        <v>103193</v>
+        <v>156374</v>
+      </c>
+      <c r="G105">
+        <v>7658.1</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -2637,52 +5168,61 @@
         <v>12</v>
       </c>
       <c r="H106">
-        <v>1858318</v>
+        <v>16233766.85</v>
       </c>
       <c r="I106" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>10</v>
       </c>
+      <c r="C107">
+        <v>26550</v>
+      </c>
       <c r="D107">
-        <v>7661.31</v>
+        <v>11188</v>
       </c>
       <c r="E107">
-        <v>20262.13</v>
+        <v>44062</v>
       </c>
       <c r="F107">
-        <v>2750</v>
+        <v>61906</v>
+      </c>
+      <c r="G107">
+        <v>16718</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>11</v>
       </c>
+      <c r="B108">
+        <v>300000</v>
+      </c>
       <c r="C108">
-        <v>14500</v>
-      </c>
-      <c r="D108">
-        <v>2492</v>
-      </c>
-      <c r="E108">
-        <v>5445</v>
+        <v>5500</v>
+      </c>
+      <c r="F108">
+        <v>13400</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>12</v>
       </c>
+      <c r="H109">
+        <v>205170</v>
+      </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -2690,53 +5230,35 @@
         <v>10</v>
       </c>
       <c r="D110">
-        <v>22554.6</v>
+        <v>1271.46</v>
       </c>
       <c r="E110">
-        <v>30212.799999999999</v>
+        <v>2492.4499999999998</v>
       </c>
       <c r="F110">
-        <v>27150.16</v>
+        <v>11425</v>
       </c>
       <c r="G110">
-        <v>5283</v>
+        <v>110.5</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>11</v>
       </c>
-      <c r="B111">
-        <v>207272.25</v>
-      </c>
-      <c r="C111">
-        <v>130196.28</v>
-      </c>
-      <c r="D111">
-        <v>4818</v>
-      </c>
-      <c r="E111">
-        <v>1836</v>
-      </c>
-      <c r="F111">
-        <v>1000</v>
-      </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>12</v>
       </c>
-      <c r="H112">
-        <v>670458.52</v>
-      </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -2744,19 +5266,19 @@
         <v>10</v>
       </c>
       <c r="D113">
-        <v>31025.01</v>
+        <v>5479</v>
       </c>
       <c r="E113">
-        <v>118407.22</v>
+        <v>28605</v>
       </c>
       <c r="F113">
-        <v>238867.48</v>
+        <v>142609</v>
       </c>
       <c r="G113">
-        <v>37700.550000000003</v>
+        <v>13562</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -2764,22 +5286,22 @@
         <v>11</v>
       </c>
       <c r="B114">
-        <v>237776.47</v>
+        <v>588846</v>
       </c>
       <c r="C114">
-        <v>1101817.78</v>
+        <v>2043451</v>
+      </c>
+      <c r="D114">
+        <v>2237</v>
       </c>
       <c r="E114">
-        <v>4500</v>
+        <v>13848</v>
       </c>
       <c r="F114">
-        <v>69597</v>
-      </c>
-      <c r="G114">
-        <v>6976.53</v>
+        <v>103193</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -2787,10 +5309,10 @@
         <v>12</v>
       </c>
       <c r="H115">
-        <v>297960.34000000003</v>
+        <v>1858318</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -2798,69 +5320,81 @@
         <v>10</v>
       </c>
       <c r="D116">
-        <v>9218</v>
+        <v>7661.31</v>
       </c>
       <c r="E116">
-        <v>20478</v>
+        <v>20262.13</v>
       </c>
       <c r="F116">
-        <v>83020</v>
-      </c>
-      <c r="G116">
-        <v>12956</v>
+        <v>2750</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>11</v>
       </c>
-      <c r="B117">
-        <v>5000</v>
-      </c>
       <c r="C117">
-        <v>534668</v>
+        <v>14500</v>
       </c>
       <c r="D117">
-        <v>1117</v>
-      </c>
-      <c r="F117">
-        <v>515656</v>
-      </c>
-      <c r="G117">
-        <v>3537</v>
+        <v>2492</v>
+      </c>
+      <c r="E117">
+        <v>5445</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>12</v>
       </c>
-      <c r="H118">
-        <v>185571</v>
-      </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>10</v>
       </c>
+      <c r="D119">
+        <v>43511</v>
+      </c>
+      <c r="E119">
+        <v>30687</v>
+      </c>
+      <c r="F119">
+        <v>1735049</v>
+      </c>
+      <c r="G119">
+        <v>60683</v>
+      </c>
       <c r="I119" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>11</v>
       </c>
+      <c r="C120">
+        <v>13317</v>
+      </c>
+      <c r="D120">
+        <v>2634</v>
+      </c>
+      <c r="F120">
+        <v>3800</v>
+      </c>
+      <c r="G120">
+        <v>125</v>
+      </c>
       <c r="I120" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -2868,10 +5402,10 @@
         <v>12</v>
       </c>
       <c r="H121">
-        <v>4400</v>
+        <v>6998109</v>
       </c>
       <c r="I121" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -2879,19 +5413,19 @@
         <v>10</v>
       </c>
       <c r="D122">
-        <v>643.20000000000005</v>
+        <v>22554.6</v>
       </c>
       <c r="E122">
-        <v>1246.33</v>
+        <v>30212.799999999999</v>
       </c>
       <c r="F122">
-        <v>21176.69</v>
+        <v>27150.16</v>
       </c>
       <c r="G122">
-        <v>394.26</v>
+        <v>5283</v>
       </c>
       <c r="I122" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -2899,22 +5433,22 @@
         <v>11</v>
       </c>
       <c r="B123">
-        <v>56430.34</v>
+        <v>207272.25</v>
       </c>
       <c r="C123">
-        <v>313726.27</v>
+        <v>130196.28</v>
       </c>
       <c r="D123">
-        <v>2641.42</v>
+        <v>4818</v>
       </c>
       <c r="E123">
-        <v>19595.990000000002</v>
+        <v>1836</v>
       </c>
       <c r="F123">
-        <v>5256</v>
+        <v>1000</v>
       </c>
       <c r="I123" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -2922,10 +5456,10 @@
         <v>12</v>
       </c>
       <c r="H124">
-        <v>414092.07</v>
+        <v>6659.31</v>
       </c>
       <c r="I124" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -2933,19 +5467,19 @@
         <v>10</v>
       </c>
       <c r="D125">
-        <v>45334</v>
+        <v>31025.01</v>
       </c>
       <c r="E125">
-        <v>107760</v>
+        <v>118407.22</v>
       </c>
       <c r="F125">
-        <v>14950</v>
+        <v>238867.48</v>
       </c>
       <c r="G125">
-        <v>1294</v>
+        <v>37700.550000000003</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -2953,27 +5487,33 @@
         <v>11</v>
       </c>
       <c r="B126">
-        <v>1852</v>
-      </c>
-      <c r="D126">
-        <v>29122</v>
+        <v>237776.47</v>
+      </c>
+      <c r="C126">
+        <v>1101817.78</v>
+      </c>
+      <c r="E126">
+        <v>4500</v>
       </c>
       <c r="F126">
-        <v>2100</v>
+        <v>69597</v>
       </c>
       <c r="G126">
-        <v>134</v>
+        <v>6976.53</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>12</v>
       </c>
+      <c r="H127">
+        <v>297960.34000000003</v>
+      </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -2981,27 +5521,42 @@
         <v>10</v>
       </c>
       <c r="D128">
-        <v>1472.6</v>
+        <v>9218</v>
       </c>
       <c r="E128">
-        <v>3388.86</v>
+        <v>20478</v>
       </c>
       <c r="F128">
-        <v>27058.58</v>
+        <v>83020</v>
       </c>
       <c r="G128">
-        <v>496.7</v>
+        <v>12956</v>
       </c>
       <c r="I128" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>11</v>
       </c>
+      <c r="B129">
+        <v>5000</v>
+      </c>
+      <c r="C129">
+        <v>534668</v>
+      </c>
+      <c r="D129">
+        <v>1117</v>
+      </c>
+      <c r="F129">
+        <v>515656</v>
+      </c>
+      <c r="G129">
+        <v>3537</v>
+      </c>
       <c r="I129" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -3009,53 +5564,26 @@
         <v>12</v>
       </c>
       <c r="H130">
-        <v>1754746.98</v>
+        <v>185571</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>10</v>
       </c>
-      <c r="D131">
-        <v>19569.830000000002</v>
-      </c>
-      <c r="E131">
-        <v>54852.63</v>
-      </c>
-      <c r="F131">
-        <v>129896.83</v>
-      </c>
-      <c r="G131">
-        <v>3466</v>
-      </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132">
-        <v>147500</v>
-      </c>
-      <c r="C132">
-        <v>392440.6</v>
-      </c>
-      <c r="D132">
-        <v>567.84</v>
-      </c>
-      <c r="E132">
-        <v>1588.53</v>
-      </c>
-      <c r="F132">
-        <v>2500</v>
-      </c>
       <c r="I132" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -3063,49 +5591,245 @@
         <v>12</v>
       </c>
       <c r="H133">
-        <v>205079.99</v>
+        <v>4400</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>10</v>
       </c>
+      <c r="D134">
+        <v>643.20000000000005</v>
+      </c>
+      <c r="E134">
+        <v>1246.33</v>
+      </c>
       <c r="F134">
-        <v>1200</v>
+        <v>21176.69</v>
+      </c>
+      <c r="G134">
+        <v>394.26</v>
       </c>
       <c r="I134" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>11</v>
       </c>
+      <c r="B135">
+        <v>56430.34</v>
+      </c>
       <c r="C135">
-        <v>15225</v>
+        <v>313726.27</v>
       </c>
       <c r="D135">
-        <v>459</v>
+        <v>2641.42</v>
       </c>
       <c r="E135">
-        <v>608</v>
+        <v>19595.990000000002</v>
+      </c>
+      <c r="F135">
+        <v>5256</v>
       </c>
       <c r="I135" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>12</v>
       </c>
+      <c r="H136">
+        <v>414092.07</v>
+      </c>
       <c r="I136" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>45334</v>
+      </c>
+      <c r="E137">
+        <v>107760</v>
+      </c>
+      <c r="F137">
+        <v>14950</v>
+      </c>
+      <c r="G137">
+        <v>1294</v>
+      </c>
+      <c r="I137" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138">
+        <v>1852</v>
+      </c>
+      <c r="D138">
+        <v>29122</v>
+      </c>
+      <c r="F138">
+        <v>2100</v>
+      </c>
+      <c r="G138">
+        <v>134</v>
+      </c>
+      <c r="I138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>1472.6</v>
+      </c>
+      <c r="E140">
+        <v>3388.86</v>
+      </c>
+      <c r="F140">
+        <v>27058.58</v>
+      </c>
+      <c r="G140">
+        <v>496.7</v>
+      </c>
+      <c r="I140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142">
+        <v>680648.93</v>
+      </c>
+      <c r="I142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>19569.830000000002</v>
+      </c>
+      <c r="E143">
+        <v>54852.63</v>
+      </c>
+      <c r="F143">
+        <v>129896.83</v>
+      </c>
+      <c r="G143">
+        <v>3466</v>
+      </c>
+      <c r="I143" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144">
+        <v>147500</v>
+      </c>
+      <c r="C144">
+        <v>392440.6</v>
+      </c>
+      <c r="D144">
+        <v>567.84</v>
+      </c>
+      <c r="E144">
+        <v>1588.53</v>
+      </c>
+      <c r="F144">
+        <v>2500</v>
+      </c>
+      <c r="I144" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145">
+        <v>205079.99</v>
+      </c>
+      <c r="I145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>1200</v>
+      </c>
+      <c r="I146" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147">
+        <v>15225</v>
+      </c>
+      <c r="D147">
+        <v>459</v>
+      </c>
+      <c r="E147">
+        <v>608</v>
+      </c>
+      <c r="I147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="I1:I148"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/0. old data/0. raw/2015/accumulations.xlsx
+++ b/data/0. old data/0. raw/2015/accumulations.xlsx
@@ -4,19 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt2" sheetId="2" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="1" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blatt1!$I$1:$I$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blatt1!$I$1:$I$148</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="78" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="61">
   <si>
     <t>donations_grants</t>
   </si>
@@ -209,18 +205,6 @@
   </si>
   <si>
     <t>roche</t>
-  </si>
-  <si>
-    <t>Zeilenbeschriftungen</t>
-  </si>
-  <si>
-    <t>Gesamtergebnis</t>
-  </si>
-  <si>
-    <t>Anzahl - type</t>
-  </si>
-  <si>
-    <t>Ergebnis</t>
   </si>
 </sst>
 </file>
@@ -575,16 +559,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="287">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -878,1957 +857,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Office User" refreshedDate="43558.577711226855" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="147">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I148" sheet="Blatt1"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="type" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="donations_grants" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1200" maxValue="2450955"/>
-    </cacheField>
-    <cacheField name="sponsorship" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1000" maxValue="2709450.54"/>
-    </cacheField>
-    <cacheField name="registration_fees" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="459" maxValue="137781.20000000001"/>
-    </cacheField>
-    <cacheField name="travel_accommodation" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="63" maxValue="528152.14"/>
-    </cacheField>
-    <cacheField name="fees" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="988" maxValue="1735049"/>
-    </cacheField>
-    <cacheField name="related_expenses" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.299999999999997" maxValue="61978.84"/>
-    </cacheField>
-    <cacheField name="total" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1000" maxValue="16233766.85"/>
-    </cacheField>
-    <cacheField name="source" numFmtId="0">
-      <sharedItems count="49">
-        <s v="abbvie"/>
-        <s v="actelion"/>
-        <s v="alcon"/>
-        <s v="allergan"/>
-        <s v="almirall"/>
-        <s v="amgen"/>
-        <s v="astellas"/>
-        <s v="astrazeneca"/>
-        <s v="baxalta"/>
-        <s v="baxter"/>
-        <s v="bayer"/>
-        <s v="bgp"/>
-        <s v="biogen"/>
-        <s v="bristol"/>
-        <s v="boehringer"/>
-        <s v="celgene"/>
-        <s v="csl"/>
-        <s v="daiichi"/>
-        <s v="eisai"/>
-        <s v="eli"/>
-        <s v="ferring"/>
-        <s v="future"/>
-        <s v="galderma"/>
-        <s v="gilead"/>
-        <s v="gruenenthal"/>
-        <s v="glaxosmithkline"/>
-        <s v="janssen"/>
-        <s v="leo"/>
-        <s v="lundbeck"/>
-        <s v="mepha"/>
-        <s v="merck"/>
-        <s v="msd"/>
-        <s v="mundipharma"/>
-        <s v="menarini"/>
-        <s v="novartis"/>
-        <s v="novo"/>
-        <s v="otsuka"/>
-        <s v="pfizer"/>
-        <s v="pierre"/>
-        <s v="roche"/>
-        <s v="sandoz"/>
-        <s v="sanofi"/>
-        <s v="servier"/>
-        <s v="stallergenes"/>
-        <s v="takeda"/>
-        <s v="teva"/>
-        <s v="ucb"/>
-        <s v="vifor"/>
-        <s v="zambon"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="147">
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="3282"/>
-    <n v="4877"/>
-    <n v="5032"/>
-    <n v="1331"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="1500"/>
-    <n v="6200"/>
-    <n v="9632"/>
-    <n v="19915"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1044454"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="12881.01"/>
-    <n v="12456.27"/>
-    <n v="63659.29"/>
-    <n v="39083.35"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="204940.79"/>
-    <n v="18000"/>
-    <m/>
-    <m/>
-    <n v="1500"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1376521.62"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="24854"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="5000"/>
-    <n v="22929.83"/>
-    <m/>
-    <m/>
-    <n v="7443.28"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="56558"/>
-    <m/>
-    <n v="106161"/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="1200"/>
-    <n v="133260"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="630"/>
-    <n v="2637.81"/>
-    <n v="10766.45"/>
-    <n v="1951.17"/>
-    <m/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="48324.98"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="18891.38"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="20317.68"/>
-    <n v="101994.55"/>
-    <n v="100031.67"/>
-    <n v="61978.84"/>
-    <m/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="1000"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1344344.84"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="11931.5"/>
-    <n v="22477.3"/>
-    <n v="35227.5"/>
-    <n v="3924"/>
-    <m/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="37182.5"/>
-    <n v="28200"/>
-    <n v="1012.1"/>
-    <n v="4333.6000000000004"/>
-    <n v="3000"/>
-    <n v="33.299999999999997"/>
-    <m/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="103738.8"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="2087.38"/>
-    <n v="10756.9"/>
-    <n v="148526.44"/>
-    <n v="2619.9299999999998"/>
-    <m/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="304287.03999999998"/>
-    <n v="639319.07999999996"/>
-    <n v="3465"/>
-    <m/>
-    <n v="111781.85"/>
-    <n v="473.8"/>
-    <m/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3622360.1"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1000"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="120000"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="137781.20000000001"/>
-    <n v="528152.14"/>
-    <n v="386331.2"/>
-    <n v="23870.9"/>
-    <m/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="1750.44"/>
-    <n v="2709450.54"/>
-    <n v="17281.75"/>
-    <n v="11715.5"/>
-    <n v="152736"/>
-    <n v="2402.89"/>
-    <m/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2144044.9"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="705"/>
-    <m/>
-    <n v="4000"/>
-    <m/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="19688"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="6714"/>
-    <n v="31279.51"/>
-    <n v="63052.73"/>
-    <n v="5937.81"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="10250"/>
-    <m/>
-    <m/>
-    <n v="291882.92"/>
-    <m/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="640001.39"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="13336"/>
-    <n v="46014"/>
-    <n v="161935"/>
-    <n v="12737"/>
-    <m/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="2450955"/>
-    <n v="652510"/>
-    <m/>
-    <n v="65"/>
-    <n v="101870"/>
-    <n v="138"/>
-    <m/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2380849"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="33841.07"/>
-    <n v="40639.279999999999"/>
-    <n v="235006.69"/>
-    <n v="15675.58"/>
-    <m/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="220751.65"/>
-    <n v="169830.41"/>
-    <m/>
-    <n v="5800"/>
-    <n v="39430.76"/>
-    <m/>
-    <m/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="199397.76000000001"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="16899"/>
-    <n v="41282"/>
-    <n v="46008"/>
-    <n v="1784"/>
-    <m/>
-    <x v="15"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="15"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="570684"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="479.8"/>
-    <n v="41641.25"/>
-    <n v="20027.514999999999"/>
-    <m/>
-    <m/>
-    <x v="16"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="32000"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="16"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="281987"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="34502"/>
-    <n v="55228"/>
-    <n v="58169"/>
-    <n v="1021"/>
-    <m/>
-    <x v="17"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="20000"/>
-    <n v="192867"/>
-    <m/>
-    <m/>
-    <n v="2300"/>
-    <m/>
-    <m/>
-    <x v="17"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="8851"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="429.24"/>
-    <n v="8236.73"/>
-    <n v="5903.37"/>
-    <m/>
-    <x v="18"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="14550"/>
-    <m/>
-    <m/>
-    <n v="5391.2"/>
-    <n v="750"/>
-    <m/>
-    <x v="18"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="533682.46"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="3081"/>
-    <n v="7827"/>
-    <n v="153600"/>
-    <n v="39375"/>
-    <m/>
-    <x v="19"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="48777"/>
-    <n v="176185"/>
-    <m/>
-    <n v="63"/>
-    <n v="28238"/>
-    <m/>
-    <m/>
-    <x v="19"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="143504"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="864"/>
-    <n v="4861"/>
-    <m/>
-    <m/>
-    <x v="20"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="204600"/>
-    <n v="96441"/>
-    <n v="618"/>
-    <n v="141"/>
-    <n v="10216"/>
-    <n v="115"/>
-    <m/>
-    <x v="20"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="20"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="4564.6400000000003"/>
-    <n v="15890.94"/>
-    <n v="4953.13"/>
-    <n v="71.72"/>
-    <m/>
-    <x v="21"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="10000"/>
-    <n v="148976.71"/>
-    <m/>
-    <n v="2159.09"/>
-    <n v="18961.66"/>
-    <n v="3036.92"/>
-    <m/>
-    <x v="21"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="254713.88"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="1400"/>
-    <n v="1600"/>
-    <n v="63565"/>
-    <n v="10323"/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="20454.95"/>
-    <n v="90796.46"/>
-    <n v="40511.54"/>
-    <n v="4093.81"/>
-    <m/>
-    <x v="23"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="544093.21"/>
-    <n v="853396.25"/>
-    <n v="17778.93"/>
-    <n v="92010.6"/>
-    <n v="63100.59"/>
-    <n v="4677.74"/>
-    <m/>
-    <x v="23"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="557916.9"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="959.2"/>
-    <n v="4487.8"/>
-    <n v="25500"/>
-    <n v="358"/>
-    <m/>
-    <x v="24"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="24"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="7260"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="484.79"/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="176513.07"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="8711"/>
-    <n v="18154"/>
-    <n v="102214"/>
-    <n v="21169"/>
-    <m/>
-    <x v="26"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="390995"/>
-    <n v="161000"/>
-    <m/>
-    <m/>
-    <n v="988"/>
-    <m/>
-    <m/>
-    <x v="26"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2239565"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="564.15"/>
-    <n v="2781"/>
-    <n v="24810"/>
-    <n v="42"/>
-    <m/>
-    <x v="27"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="1600"/>
-    <n v="94557.35"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="27"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5000"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="28"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="28"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="28"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="4852"/>
-    <n v="8524"/>
-    <n v="16322"/>
-    <n v="1376"/>
-    <m/>
-    <x v="29"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="245086"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="29"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="29"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="33072.71"/>
-    <n v="96738.59"/>
-    <n v="122576.78"/>
-    <n v="10311.35"/>
-    <m/>
-    <x v="30"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="30"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="2303382"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <n v="37213.870000000003"/>
-    <n v="10424.219999999999"/>
-    <n v="48466.58"/>
-    <n v="301203.73"/>
-    <n v="27160.82"/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="194148.15"/>
-    <n v="590643.93000000005"/>
-    <n v="10302.549999999999"/>
-    <n v="39737.279999999999"/>
-    <n v="197042.52"/>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1031039.46"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="32"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="32"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="125500"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="524"/>
-    <n v="2352"/>
-    <m/>
-    <m/>
-    <x v="33"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="8377"/>
-    <n v="447235"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="33"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="33"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="43593.3"/>
-    <n v="64540.01"/>
-    <n v="209375.86"/>
-    <n v="24602.639999999999"/>
-    <m/>
-    <x v="34"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="74091.19"/>
-    <n v="526308.59"/>
-    <n v="9139.6"/>
-    <n v="35683.79"/>
-    <n v="156374"/>
-    <n v="7658.1"/>
-    <m/>
-    <x v="34"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="16233766.85"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <n v="26550"/>
-    <n v="11188"/>
-    <n v="44062"/>
-    <n v="61906"/>
-    <n v="16718"/>
-    <m/>
-    <x v="35"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="300000"/>
-    <n v="5500"/>
-    <m/>
-    <m/>
-    <n v="13400"/>
-    <m/>
-    <m/>
-    <x v="35"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="205170"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="1271.46"/>
-    <n v="2492.4499999999998"/>
-    <n v="11425"/>
-    <n v="110.5"/>
-    <m/>
-    <x v="36"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="36"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="36"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="5479"/>
-    <n v="28605"/>
-    <n v="142609"/>
-    <n v="13562"/>
-    <m/>
-    <x v="37"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="588846"/>
-    <n v="2043451"/>
-    <n v="2237"/>
-    <n v="13848"/>
-    <n v="103193"/>
-    <m/>
-    <m/>
-    <x v="37"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1858318"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="7661.31"/>
-    <n v="20262.13"/>
-    <n v="2750"/>
-    <m/>
-    <m/>
-    <x v="38"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="14500"/>
-    <n v="2492"/>
-    <n v="5445"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="38"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="38"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="43511"/>
-    <n v="30687"/>
-    <n v="1735049"/>
-    <n v="60683"/>
-    <m/>
-    <x v="39"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="13317"/>
-    <n v="2634"/>
-    <m/>
-    <n v="3800"/>
-    <n v="125"/>
-    <m/>
-    <x v="39"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="6998109"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="22554.6"/>
-    <n v="30212.799999999999"/>
-    <n v="27150.16"/>
-    <n v="5283"/>
-    <m/>
-    <x v="40"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="207272.25"/>
-    <n v="130196.28"/>
-    <n v="4818"/>
-    <n v="1836"/>
-    <n v="1000"/>
-    <m/>
-    <m/>
-    <x v="40"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="6659.31"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="31025.01"/>
-    <n v="118407.22"/>
-    <n v="238867.48"/>
-    <n v="37700.550000000003"/>
-    <m/>
-    <x v="41"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="237776.47"/>
-    <n v="1101817.78"/>
-    <m/>
-    <n v="4500"/>
-    <n v="69597"/>
-    <n v="6976.53"/>
-    <m/>
-    <x v="41"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="297960.34000000003"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="9218"/>
-    <n v="20478"/>
-    <n v="83020"/>
-    <n v="12956"/>
-    <m/>
-    <x v="42"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="5000"/>
-    <n v="534668"/>
-    <n v="1117"/>
-    <m/>
-    <n v="515656"/>
-    <n v="3537"/>
-    <m/>
-    <x v="42"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="185571"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="43"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="43"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4400"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="643.20000000000005"/>
-    <n v="1246.33"/>
-    <n v="21176.69"/>
-    <n v="394.26"/>
-    <m/>
-    <x v="44"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="56430.34"/>
-    <n v="313726.27"/>
-    <n v="2641.42"/>
-    <n v="19595.990000000002"/>
-    <n v="5256"/>
-    <m/>
-    <m/>
-    <x v="44"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="414092.07"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="45334"/>
-    <n v="107760"/>
-    <n v="14950"/>
-    <n v="1294"/>
-    <m/>
-    <x v="45"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="1852"/>
-    <m/>
-    <n v="29122"/>
-    <m/>
-    <n v="2100"/>
-    <n v="134"/>
-    <m/>
-    <x v="45"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="45"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="1472.6"/>
-    <n v="3388.86"/>
-    <n v="27058.58"/>
-    <n v="496.7"/>
-    <m/>
-    <x v="46"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="46"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="680648.93"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <n v="19569.830000000002"/>
-    <n v="54852.63"/>
-    <n v="129896.83"/>
-    <n v="3466"/>
-    <m/>
-    <x v="47"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <n v="147500"/>
-    <n v="392440.6"/>
-    <n v="567.84"/>
-    <n v="1588.53"/>
-    <n v="2500"/>
-    <m/>
-    <m/>
-    <x v="47"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="205079.99"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <s v="hcp"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1200"/>
-    <m/>
-    <m/>
-    <x v="48"/>
-  </r>
-  <r>
-    <s v="hco"/>
-    <m/>
-    <n v="15225"/>
-    <n v="459"/>
-    <n v="608"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="48"/>
-  </r>
-  <r>
-    <s v="rnd"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="48"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:B54" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="50">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="33"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="50">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Anzahl - type" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3153,449 +1181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B54"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="6">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
